--- a/data/output/set50/high_noisy_50/results/ssim.xlsx
+++ b/data/output/set50/high_noisy_50/results/ssim.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\high_noisy_50\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\GaussianExperiments\data\output\set50\high_noisy_50\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9889CB5B-A1B9-43C8-A86D-1FA686BACD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD157636-E6D9-4B57-A677-416C683B9EBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ssim_nlm</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>ssim_bm3d</t>
+  </si>
+  <si>
+    <t>ssim_dual</t>
   </si>
 </sst>
 </file>
@@ -414,576 +417,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.14980083</v>
+      </c>
+      <c r="B2">
         <v>0.69715883999999995</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>0.56610963999999997</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>0.78008367999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.23956764</v>
+      </c>
+      <c r="B3">
         <v>0.66383393000000002</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0.59136288000000004</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.78234886000000003</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.15918478</v>
+      </c>
+      <c r="B4">
         <v>0.56109768000000004</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>0.47712168999999999</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>0.66845306000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.16146864</v>
+      </c>
+      <c r="B5">
         <v>0.57647753000000002</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0.47903831000000002</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>0.68212346000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>0.14754039999999999</v>
+      </c>
+      <c r="B6">
         <v>0.52131923999999996</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>0.43456169</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>0.63907029000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0.15365029999999999</v>
+      </c>
+      <c r="B7">
         <v>0.56581601999999998</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>0.48705843999999998</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>0.69467363000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.21825917</v>
+      </c>
+      <c r="B8">
         <v>0.49377815000000003</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>0.43619274000000002</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>0.65453291000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>0.37885573</v>
+      </c>
+      <c r="B9">
         <v>0.61899309000000002</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>0.60285478000000003</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>0.71115333000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>0.15642724999999999</v>
+      </c>
+      <c r="B10">
         <v>0.59377897999999996</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>0.52804691999999998</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>0.67244948000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>0.22983739</v>
+      </c>
+      <c r="B11">
         <v>0.57371011999999999</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>0.48592775999999999</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.71351436000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>0.16627362000000001</v>
+      </c>
+      <c r="B12">
         <v>0.72579970999999999</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.58226153999999997</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.81888459999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>0.39101353999999999</v>
+      </c>
+      <c r="B13">
         <v>0.70273478</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.68398344</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>0.78165686999999995</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>0.2168397</v>
+      </c>
+      <c r="B14">
         <v>0.48828447000000003</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>0.44813143</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>0.57110479000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>0.20160633999999999</v>
+      </c>
+      <c r="B15">
         <v>0.63031906000000004</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>0.52248249999999996</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>0.75619418000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>0.36500001999999998</v>
+      </c>
+      <c r="B16">
         <v>0.47904552</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>0.47697278999999998</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>0.51447611999999998</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>0.27229945</v>
+      </c>
+      <c r="B17">
         <v>0.49997285000000002</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>0.43614157999999997</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>0.59707867000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>0.31656244</v>
+      </c>
+      <c r="B18">
         <v>0.4186338</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>0.42984328999999999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>0.43568706000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>0.35960427</v>
+      </c>
+      <c r="B19">
         <v>0.52317511000000005</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>0.54010029000000004</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>0.62585793999999995</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>0.38005992999999999</v>
+      </c>
+      <c r="B20">
         <v>0.52440222000000003</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>0.51811971999999995</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.59459843000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>0.25836361000000002</v>
+      </c>
+      <c r="B21">
         <v>0.52602886000000004</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>0.50369425999999995</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.63959151000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>0.23595770999999999</v>
+      </c>
+      <c r="B22">
         <v>0.44091446000000001</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>0.41127831999999998</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.55139581000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>0.15330568</v>
+      </c>
+      <c r="B23">
         <v>0.56754961000000004</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>0.46480023999999998</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.67608745000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>0.18608570999999999</v>
+      </c>
+      <c r="B24">
         <v>0.55355940999999997</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>0.41728564000000001</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>0.63439350999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>0.10400328</v>
+      </c>
+      <c r="B25">
         <v>0.72328972999999996</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>0.59001174999999995</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>0.79954979999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>0.13160098000000001</v>
+      </c>
+      <c r="B26">
         <v>0.59510436</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>0.49502615</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>0.70121277999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>8.7851399999999996E-2</v>
+      </c>
+      <c r="B27">
         <v>0.67107287000000004</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>0.56159444999999997</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>0.74210944999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>0.11734917</v>
+      </c>
+      <c r="B28">
         <v>0.59032841000000003</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>0.48938238000000001</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>0.67945995000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>0.11614495</v>
+      </c>
+      <c r="B29">
         <v>0.73193032000000002</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>0.61789455999999998</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>0.79008416999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>0.12468464</v>
+      </c>
+      <c r="B30">
         <v>0.58720055999999998</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.50142971999999997</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>0.67573019000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>0.31180221000000002</v>
+      </c>
+      <c r="B31">
         <v>0.44037537999999998</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>0.46537853000000001</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>0.5115499</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>0.20688572999999999</v>
+      </c>
+      <c r="B32">
         <v>0.49829266999999999</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>0.45405812000000001</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>0.60624566000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>0.39350498</v>
+      </c>
+      <c r="B33">
         <v>0.50067753999999998</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>0.49373467999999998</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.51907977000000005</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>0.27887151999999998</v>
+      </c>
+      <c r="B34">
         <v>0.44391508000000002</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>0.43768242000000002</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.52399430999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>0.19820552999999999</v>
+      </c>
+      <c r="B35">
         <v>0.50971798999999995</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>0.44127195000000002</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>0.61287364</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>0.25036261999999998</v>
+      </c>
+      <c r="B36">
         <v>0.50870864000000005</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>0.49298882999999999</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>0.61950068999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>0.17979761999999999</v>
+      </c>
+      <c r="B37">
         <v>0.63927016999999997</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>0.53773881999999995</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>0.73503145999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>0.26853589</v>
+      </c>
+      <c r="B38">
         <v>0.47489805000000002</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>0.48574231000000001</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.63818733999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>0.16541753000000001</v>
+      </c>
+      <c r="B39">
         <v>0.44961193999999999</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>0.37758778999999998</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.50535589000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>0.15138183999999999</v>
+      </c>
+      <c r="B40">
         <v>0.56594959</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.47414868999999998</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.70267329000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>0.11177206000000001</v>
+      </c>
+      <c r="B41">
         <v>0.71935300999999996</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.60366386999999999</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.76418202999999996</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>9.7127720000000001E-2</v>
+      </c>
+      <c r="B42">
         <v>0.61354534999999999</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.51625215000000002</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>0.70199308000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>0.20242018000000001</v>
+      </c>
+      <c r="B43">
         <v>0.53907042999999999</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.47513629000000002</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>0.69326756</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>0.20136825999999999</v>
+      </c>
+      <c r="B44">
         <v>0.57705958000000002</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>0.48858423000000001</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>0.70284952000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>0.21683048999999999</v>
+      </c>
+      <c r="B45">
         <v>0.65484138000000003</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>0.55968503000000003</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>0.77127184000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>0.56569990999999997</v>
+      </c>
+      <c r="B46">
         <v>0.60501910000000003</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>0.60776333000000005</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>0.48656919999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>0.21816821</v>
+      </c>
+      <c r="B47">
         <v>0.62673460000000003</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>0.53158963999999997</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>0.72873871000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>0.28848696000000001</v>
+      </c>
+      <c r="B48">
         <v>0.49373439000000002</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>0.47612178999999999</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>0.58650902000000005</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>0.31149797000000001</v>
+      </c>
+      <c r="B49">
         <v>0.50345585999999998</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>0.47627464000000003</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>0.56250476999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>0.18393802000000001</v>
+      </c>
+      <c r="B50">
         <v>0.63766694000000002</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>0.52724632999999999</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>0.75777740999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>0.36374706000000001</v>
+      </c>
+      <c r="B51">
         <v>0.74282031000000004</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.62718262000000002</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>0.80210375</v>
       </c>
     </row>
